--- a/Listado alumnos 2015.xlsx
+++ b/Listado alumnos 2015.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="965" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -218,7 +218,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="F14" activeCellId="0" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -385,6 +385,12 @@
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
+      <c r="E14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Listado alumnos 2015.xlsx
+++ b/Listado alumnos 2015.xlsx
@@ -5,17 +5,22 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -84,6 +89,12 @@
   </si>
   <si>
     <t>Waisman, Alexis Wolf</t>
+  </si>
+  <si>
+    <t>python</t>
+  </si>
+  <si>
+    <t>presente</t>
   </si>
   <si>
     <t>Carnevali, Joaquin</t>
@@ -189,13 +200,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,14 +233,14 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.85714285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -321,13 +336,16 @@
       <c r="A6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
+      <c r="C6" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
@@ -335,7 +353,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
@@ -343,7 +361,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
@@ -351,7 +369,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
@@ -359,7 +377,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
@@ -367,7 +385,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
@@ -375,7 +393,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
@@ -383,7 +401,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Listado alumnos 2015.xlsx
+++ b/Listado alumnos 2015.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="Unspecified"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Nombre</t>
   </si>
@@ -125,10 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -136,22 +132,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -167,7 +148,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -175,75 +156,323 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="76" zoomScaleNormal="76" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col min="1" max="1" width="22.44140625"/>
+    <col min="2" max="2" width="6.77734375"/>
+    <col min="3" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -257,158 +486,157 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="0" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:19">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:19">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
   </headerFooter>

--- a/Listado alumnos 2015.xlsx
+++ b/Listado alumnos 2015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Nombre</t>
   </si>
@@ -118,13 +118,16 @@
   </si>
   <si>
     <t>Gonzalez, Noel</t>
+  </si>
+  <si>
+    <t>java</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -171,11 +174,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -249,6 +257,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -283,6 +292,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -458,21 +468,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.44140625"/>
     <col min="2" max="2" width="6.77734375"/>
     <col min="3" max="1025" width="11.33203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -537,7 +547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -545,7 +555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -553,15 +563,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>21</v>
       </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -572,7 +630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -580,7 +638,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -588,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -596,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -604,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -612,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -620,7 +678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -628,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>

--- a/Listado alumnos 2015.xlsx
+++ b/Listado alumnos 2015.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NOEL\Desktop\ProbandoGit\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>Nombre</t>
   </si>
@@ -121,6 +126,15 @@
   </si>
   <si>
     <t>java</t>
+  </si>
+  <si>
+    <t>Presente</t>
+  </si>
+  <si>
+    <t>Javascript</t>
+  </si>
+  <si>
+    <t>PHP</t>
   </si>
 </sst>
 </file>
@@ -178,12 +192,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -225,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -260,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,18 +488,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="76" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.44140625"/>
-    <col min="2" max="2" width="6.77734375"/>
-    <col min="3" max="1025" width="11.33203125"/>
+    <col min="1" max="1" width="22.42578125"/>
+    <col min="2" max="2" width="6.7109375"/>
+    <col min="3" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,7 +556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -547,7 +564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -555,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -563,7 +580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -619,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -630,7 +647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -638,15 +655,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -654,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -662,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -670,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -678,7 +698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -686,9 +706,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
